--- a/io_mux_cfg.xlsx
+++ b/io_mux_cfg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>iomux_cfg0</t>
   </si>
@@ -49,24 +49,38 @@
     <t>X/C</t>
   </si>
   <si>
-    <t>gpio</t>
-  </si>
-  <si>
     <t>C/C</t>
   </si>
   <si>
+    <t>default_i</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>5:4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iomux_cfg1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_MOSI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi_mosi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpio[6]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -74,27 +88,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>iomux_cfg1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI_MOSI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi_mosi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpio[6]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>X/C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpio[5]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart_tx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X/C</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -102,19 +112,71 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>X/C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C/C</t>
+    <t>6:4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart_rx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart_rx</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,11 +817,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -833,6 +900,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -867,6 +935,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1042,24 +1111,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1076,18 +1145,18 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1096,12 +1165,12 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5" s="1">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1110,94 +1179,186 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" s="1">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
